--- a/data/METEO_PERIOD_2.xlsx
+++ b/data/METEO_PERIOD_2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="PERIOD2(2018-NOW)" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,21 +57,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1027"/>
+  <dimension ref="A1:G1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24085,7 +24085,122 @@
         <v>107</v>
       </c>
     </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>9880</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>9880</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>9860</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>44247</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>9870</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>9870</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>9850</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>9830</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>44248</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>9840</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>9810</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>9780</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>9780</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>9830</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>9880</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>9920</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>9970</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>10010</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>10030</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>10020</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/METEO_PERIOD_2.xlsx
+++ b/data/METEO_PERIOD_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1032"/>
+  <dimension ref="A1:G1040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24200,6 +24200,190 @@
         <v>109</v>
       </c>
     </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>10040</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>10030</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>10010</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>9980</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>9990</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>9990</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>9990</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>9980</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>9990</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>9970</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>44254</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>9970</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>9960</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>9940</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>9920</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>9930</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>9920</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>9920</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>9920</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>9950</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>9960</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>9970</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>9980</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>44258</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>9990</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>9980</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>9960</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>9960</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>9930</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>9920</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>9880</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/METEO_PERIOD_2.xlsx
+++ b/data/METEO_PERIOD_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1112"/>
+  <dimension ref="A1:G1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26040,6 +26040,98 @@
         <v>160</v>
       </c>
     </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>44336</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>9940</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>9940</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>9900</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>9880</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>44337</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>9870</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>9860</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>9810</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>9790</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>44338</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>9850</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>9850</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>9850</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>9850</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>9900</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>9900</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>9880</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/METEO_PERIOD_2.xlsx
+++ b/data/METEO_PERIOD_2.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1116"/>
+  <dimension ref="A1:G1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26132,6 +26132,52 @@
         <v>125</v>
       </c>
     </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>9880</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>9880</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>9880</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>9900</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>9940</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>9960</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>9940</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>9920</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
